--- a/results_silence_11seconds.xlsx
+++ b/results_silence_11seconds.xlsx
@@ -474,7 +474,7 @@
         <v>1.96</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_0.mp3","silence_11seconds/output_0.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_0.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_0.mp3")</f>
         <v/>
       </c>
     </row>
@@ -492,7 +492,7 @@
         <v>1.31</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_1.mp3","silence_11seconds/output_1.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_1.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_1.mp3")</f>
         <v/>
       </c>
     </row>
@@ -510,7 +510,7 @@
         <v>70.05</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_2.mp3","silence_11seconds/output_2.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_2.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_2.mp3")</f>
         <v/>
       </c>
     </row>
@@ -528,7 +528,7 @@
         <v>12.85</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_3.mp3","silence_11seconds/output_3.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_3.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_3.mp3")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
         <v>2.57</v>
       </c>
       <c r="E6">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_4.mp3","silence_11seconds/output_4.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_4.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_4.mp3")</f>
         <v/>
       </c>
     </row>
@@ -564,7 +564,7 @@
         <v>2.51</v>
       </c>
       <c r="E7">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_5.mp3","silence_11seconds/output_5.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_5.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_5.mp3")</f>
         <v/>
       </c>
     </row>
@@ -582,7 +582,7 @@
         <v>2.8</v>
       </c>
       <c r="E8">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_6.mp3","silence_11seconds/output_6.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_6.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_6.mp3")</f>
         <v/>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <v>6.02</v>
       </c>
       <c r="E9">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_7.mp3","silence_11seconds/output_7.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_7.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_7.mp3")</f>
         <v/>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>61.52</v>
       </c>
       <c r="E10">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_8.mp3","silence_11seconds/output_8.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_8.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_8.mp3")</f>
         <v/>
       </c>
     </row>
@@ -636,7 +636,7 @@
         <v>7.06</v>
       </c>
       <c r="E11">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_9.mp3","silence_11seconds/output_9.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_9.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_9.mp3")</f>
         <v/>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="E12">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_10.mp3","silence_11seconds/output_10.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_10.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_10.mp3")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>1.89</v>
       </c>
       <c r="E13">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_11.mp3","silence_11seconds/output_11.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_11.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_11.mp3")</f>
         <v/>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>29.16</v>
       </c>
       <c r="E14">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_12.mp3","silence_11seconds/output_12.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_12.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_12.mp3")</f>
         <v/>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>6.26</v>
       </c>
       <c r="E15">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_13.mp3","silence_11seconds/output_13.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_13.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_13.mp3")</f>
         <v/>
       </c>
     </row>
@@ -726,7 +726,7 @@
         <v>0.03</v>
       </c>
       <c r="E16">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_14.mp3","silence_11seconds/output_14.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_14.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_14.mp3")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>15.05</v>
       </c>
       <c r="E17">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_15.mp3","silence_11seconds/output_15.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_15.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_15.mp3")</f>
         <v/>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>17.19</v>
       </c>
       <c r="E18">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_16.mp3","silence_11seconds/output_16.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_16.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_16.mp3")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>5.52</v>
       </c>
       <c r="E19">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_17.mp3","silence_11seconds/output_17.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_17.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_17.mp3")</f>
         <v/>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>33.68</v>
       </c>
       <c r="E20">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_18.mp3","silence_11seconds/output_18.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_18.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_18.mp3")</f>
         <v/>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>0.72</v>
       </c>
       <c r="E21">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_19.mp3","silence_11seconds/output_19.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_19.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_19.mp3")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>26.16</v>
       </c>
       <c r="E22">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_20.mp3","silence_11seconds/output_20.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_20.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_20.mp3")</f>
         <v/>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>2.47</v>
       </c>
       <c r="E23">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_21.mp3","silence_11seconds/output_21.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_21.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_21.mp3")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>8.4</v>
       </c>
       <c r="E24">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_22.mp3","silence_11seconds/output_22.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_22.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_22.mp3")</f>
         <v/>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="E25">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_23.mp3","silence_11seconds/output_23.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_23.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_23.mp3")</f>
         <v/>
       </c>
     </row>
@@ -906,7 +906,7 @@
         <v>2.72</v>
       </c>
       <c r="E26">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_24.mp3","silence_11seconds/output_24.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_24.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_24.mp3")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>7.29</v>
       </c>
       <c r="E27">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_25.mp3","silence_11seconds/output_25.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_25.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_25.mp3")</f>
         <v/>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>9.66</v>
       </c>
       <c r="E28">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_26.mp3","silence_11seconds/output_26.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_26.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_26.mp3")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>4.45</v>
       </c>
       <c r="E29">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_27.mp3","silence_11seconds/output_27.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_27.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_27.mp3")</f>
         <v/>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>13.83</v>
       </c>
       <c r="E30">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_28.mp3","silence_11seconds/output_28.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_28.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_28.mp3")</f>
         <v/>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>16.61</v>
       </c>
       <c r="E31">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_29.mp3","silence_11seconds/output_29.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_29.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_29.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>14.33</v>
       </c>
       <c r="E32">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_30.mp3","silence_11seconds/output_30.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_30.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_30.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>0.02</v>
       </c>
       <c r="E33">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_31.mp3","silence_11seconds/output_31.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_31.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_31.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>21.93</v>
       </c>
       <c r="E34">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_32.mp3","silence_11seconds/output_32.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_32.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_32.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>2.33</v>
       </c>
       <c r="E35">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_33.mp3","silence_11seconds/output_33.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_33.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_33.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>2.58</v>
       </c>
       <c r="E36">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_34.mp3","silence_11seconds/output_34.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_34.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_34.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>0.84</v>
       </c>
       <c r="E37">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_35.mp3","silence_11seconds/output_35.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_35.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_35.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>121.23</v>
       </c>
       <c r="E38">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_36.mp3","silence_11seconds/output_36.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_36.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_36.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>17.79</v>
       </c>
       <c r="E39">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_37.mp3","silence_11seconds/output_37.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_37.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_37.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>12.73</v>
       </c>
       <c r="E40">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_38.mp3","silence_11seconds/output_38.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_38.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_38.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>12.99</v>
       </c>
       <c r="E41">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_39.mp3","silence_11seconds/output_39.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_39.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_39.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>1.37</v>
       </c>
       <c r="E42">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_40.mp3","silence_11seconds/output_40.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_40.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_40.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>1.33</v>
       </c>
       <c r="E43">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_41.mp3","silence_11seconds/output_41.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_41.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_41.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>3.83</v>
       </c>
       <c r="E44">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_42.mp3","silence_11seconds/output_42.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_42.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_42.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>5.87</v>
       </c>
       <c r="E45">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_43.mp3","silence_11seconds/output_43.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_43.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_43.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>1.53</v>
       </c>
       <c r="E46">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_44.mp3","silence_11seconds/output_44.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_44.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_44.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>2.58</v>
       </c>
       <c r="E47">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_45.mp3","silence_11seconds/output_45.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_45.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_45.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>8.48</v>
       </c>
       <c r="E48">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_46.mp3","silence_11seconds/output_46.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_46.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_46.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>8.5</v>
       </c>
       <c r="E49">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_47.mp3","silence_11seconds/output_47.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_47.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_47.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>14.09</v>
       </c>
       <c r="E50">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_48.mp3","silence_11seconds/output_48.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_48.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_48.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>2.25</v>
       </c>
       <c r="E51">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_49.mp3","silence_11seconds/output_49.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_49.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_49.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>4.5</v>
       </c>
       <c r="E52">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_50.mp3","silence_11seconds/output_50.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_50.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_50.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>0.51</v>
       </c>
       <c r="E53">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_51.mp3","silence_11seconds/output_51.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_51.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_51.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="E54">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_52.mp3","silence_11seconds/output_52.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_52.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_52.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>0.73</v>
       </c>
       <c r="E55">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_53.mp3","silence_11seconds/output_53.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_53.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_53.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_54.mp3","silence_11seconds/output_54.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_54.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_54.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>7.78</v>
       </c>
       <c r="E57">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_55.mp3","silence_11seconds/output_55.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_55.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_55.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
         <v>2.76</v>
       </c>
       <c r="E58">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_56.mp3","silence_11seconds/output_56.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_56.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_56.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>3.87</v>
       </c>
       <c r="E59">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_57.mp3","silence_11seconds/output_57.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_57.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_57.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>10.45</v>
       </c>
       <c r="E60">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_58.mp3","silence_11seconds/output_58.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_58.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_58.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>6.38</v>
       </c>
       <c r="E61">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_59.mp3","silence_11seconds/output_59.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_59.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_59.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>2.56</v>
       </c>
       <c r="E62">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_60.mp3","silence_11seconds/output_60.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_60.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_60.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <v>1.08</v>
       </c>
       <c r="E63">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_61.mp3","silence_11seconds/output_61.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_61.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_61.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>10.67</v>
       </c>
       <c r="E64">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_62.mp3","silence_11seconds/output_62.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_62.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_62.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>0.7</v>
       </c>
       <c r="E65">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_63.mp3","silence_11seconds/output_63.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_63.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_63.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
         <v>5.62</v>
       </c>
       <c r="E66">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_64.mp3","silence_11seconds/output_64.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_64.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_64.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
         <v>5.07</v>
       </c>
       <c r="E67">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_65.mp3","silence_11seconds/output_65.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_65.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_65.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         <v>3.72</v>
       </c>
       <c r="E68">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_66.mp3","silence_11seconds/output_66.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_66.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_66.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
         <v>7.28</v>
       </c>
       <c r="E69">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_67.mp3","silence_11seconds/output_67.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_67.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_67.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>2.27</v>
       </c>
       <c r="E70">
-        <f>HYPERLINK("github.com/Pier297/tamasheq/silence_11seconds/output_68.mp3","silence_11seconds/output_68.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_68.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_68.mp3")</f>
         <v/>
       </c>
     </row>

--- a/results_silence_11seconds.xlsx
+++ b/results_silence_11seconds.xlsx
@@ -474,7 +474,7 @@
         <v>1.96</v>
       </c>
       <c r="E2">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_0.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_0.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_0.mp3", "silence_11seconds/output_0.mp3")</f>
         <v/>
       </c>
     </row>
@@ -492,7 +492,7 @@
         <v>1.31</v>
       </c>
       <c r="E3">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_1.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_1.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_1.mp3", "silence_11seconds/output_1.mp3")</f>
         <v/>
       </c>
     </row>
@@ -510,7 +510,7 @@
         <v>70.05</v>
       </c>
       <c r="E4">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_2.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_2.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_2.mp3", "silence_11seconds/output_2.mp3")</f>
         <v/>
       </c>
     </row>
@@ -528,7 +528,7 @@
         <v>12.85</v>
       </c>
       <c r="E5">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_3.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_3.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_3.mp3", "silence_11seconds/output_3.mp3")</f>
         <v/>
       </c>
     </row>
@@ -546,7 +546,7 @@
         <v>2.57</v>
       </c>
       <c r="E6">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_4.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_4.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_4.mp3", "silence_11seconds/output_4.mp3")</f>
         <v/>
       </c>
     </row>
@@ -564,7 +564,7 @@
         <v>2.51</v>
       </c>
       <c r="E7">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_5.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_5.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_5.mp3", "silence_11seconds/output_5.mp3")</f>
         <v/>
       </c>
     </row>
@@ -582,7 +582,7 @@
         <v>2.8</v>
       </c>
       <c r="E8">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_6.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_6.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_6.mp3", "silence_11seconds/output_6.mp3")</f>
         <v/>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <v>6.02</v>
       </c>
       <c r="E9">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_7.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_7.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_7.mp3", "silence_11seconds/output_7.mp3")</f>
         <v/>
       </c>
     </row>
@@ -618,7 +618,7 @@
         <v>61.52</v>
       </c>
       <c r="E10">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_8.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_8.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_8.mp3", "silence_11seconds/output_8.mp3")</f>
         <v/>
       </c>
     </row>
@@ -636,7 +636,7 @@
         <v>7.06</v>
       </c>
       <c r="E11">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_9.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_9.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_9.mp3", "silence_11seconds/output_9.mp3")</f>
         <v/>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>9.039999999999999</v>
       </c>
       <c r="E12">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_10.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_10.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_10.mp3", "silence_11seconds/output_10.mp3")</f>
         <v/>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>1.89</v>
       </c>
       <c r="E13">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_11.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_11.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_11.mp3", "silence_11seconds/output_11.mp3")</f>
         <v/>
       </c>
     </row>
@@ -690,7 +690,7 @@
         <v>29.16</v>
       </c>
       <c r="E14">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_12.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_12.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_12.mp3", "silence_11seconds/output_12.mp3")</f>
         <v/>
       </c>
     </row>
@@ -708,7 +708,7 @@
         <v>6.26</v>
       </c>
       <c r="E15">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_13.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_13.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_13.mp3", "silence_11seconds/output_13.mp3")</f>
         <v/>
       </c>
     </row>
@@ -726,7 +726,7 @@
         <v>0.03</v>
       </c>
       <c r="E16">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_14.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_14.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_14.mp3", "silence_11seconds/output_14.mp3")</f>
         <v/>
       </c>
     </row>
@@ -744,7 +744,7 @@
         <v>15.05</v>
       </c>
       <c r="E17">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_15.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_15.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_15.mp3", "silence_11seconds/output_15.mp3")</f>
         <v/>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>17.19</v>
       </c>
       <c r="E18">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_16.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_16.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_16.mp3", "silence_11seconds/output_16.mp3")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>5.52</v>
       </c>
       <c r="E19">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_17.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_17.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_17.mp3", "silence_11seconds/output_17.mp3")</f>
         <v/>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>33.68</v>
       </c>
       <c r="E20">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_18.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_18.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_18.mp3", "silence_11seconds/output_18.mp3")</f>
         <v/>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>0.72</v>
       </c>
       <c r="E21">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_19.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_19.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_19.mp3", "silence_11seconds/output_19.mp3")</f>
         <v/>
       </c>
     </row>
@@ -834,7 +834,7 @@
         <v>26.16</v>
       </c>
       <c r="E22">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_20.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_20.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_20.mp3", "silence_11seconds/output_20.mp3")</f>
         <v/>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>2.47</v>
       </c>
       <c r="E23">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_21.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_21.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_21.mp3", "silence_11seconds/output_21.mp3")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>8.4</v>
       </c>
       <c r="E24">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_22.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_22.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_22.mp3", "silence_11seconds/output_22.mp3")</f>
         <v/>
       </c>
     </row>
@@ -888,7 +888,7 @@
         <v>64.06999999999999</v>
       </c>
       <c r="E25">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_23.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_23.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_23.mp3", "silence_11seconds/output_23.mp3")</f>
         <v/>
       </c>
     </row>
@@ -906,7 +906,7 @@
         <v>2.72</v>
       </c>
       <c r="E26">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_24.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_24.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_24.mp3", "silence_11seconds/output_24.mp3")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>7.29</v>
       </c>
       <c r="E27">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_25.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_25.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_25.mp3", "silence_11seconds/output_25.mp3")</f>
         <v/>
       </c>
     </row>
@@ -942,7 +942,7 @@
         <v>9.66</v>
       </c>
       <c r="E28">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_26.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_26.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_26.mp3", "silence_11seconds/output_26.mp3")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
         <v>4.45</v>
       </c>
       <c r="E29">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_27.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_27.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_27.mp3", "silence_11seconds/output_27.mp3")</f>
         <v/>
       </c>
     </row>
@@ -978,7 +978,7 @@
         <v>13.83</v>
       </c>
       <c r="E30">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_28.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_28.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_28.mp3", "silence_11seconds/output_28.mp3")</f>
         <v/>
       </c>
     </row>
@@ -996,7 +996,7 @@
         <v>16.61</v>
       </c>
       <c r="E31">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_29.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_29.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_29.mp3", "silence_11seconds/output_29.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>14.33</v>
       </c>
       <c r="E32">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_30.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_30.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_30.mp3", "silence_11seconds/output_30.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>0.02</v>
       </c>
       <c r="E33">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_31.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_31.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_31.mp3", "silence_11seconds/output_31.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
         <v>21.93</v>
       </c>
       <c r="E34">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_32.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_32.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_32.mp3", "silence_11seconds/output_32.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
         <v>2.33</v>
       </c>
       <c r="E35">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_33.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_33.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_33.mp3", "silence_11seconds/output_33.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
         <v>2.58</v>
       </c>
       <c r="E36">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_34.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_34.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_34.mp3", "silence_11seconds/output_34.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>0.84</v>
       </c>
       <c r="E37">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_35.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_35.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_35.mp3", "silence_11seconds/output_35.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>121.23</v>
       </c>
       <c r="E38">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_36.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_36.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_36.mp3", "silence_11seconds/output_36.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
         <v>17.79</v>
       </c>
       <c r="E39">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_37.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_37.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_37.mp3", "silence_11seconds/output_37.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
         <v>12.73</v>
       </c>
       <c r="E40">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_38.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_38.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_38.mp3", "silence_11seconds/output_38.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
         <v>12.99</v>
       </c>
       <c r="E41">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_39.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_39.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_39.mp3", "silence_11seconds/output_39.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>1.37</v>
       </c>
       <c r="E42">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_40.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_40.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_40.mp3", "silence_11seconds/output_40.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
         <v>1.33</v>
       </c>
       <c r="E43">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_41.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_41.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_41.mp3", "silence_11seconds/output_41.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>3.83</v>
       </c>
       <c r="E44">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_42.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_42.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_42.mp3", "silence_11seconds/output_42.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         <v>5.87</v>
       </c>
       <c r="E45">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_43.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_43.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_43.mp3", "silence_11seconds/output_43.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
         <v>1.53</v>
       </c>
       <c r="E46">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_44.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_44.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_44.mp3", "silence_11seconds/output_44.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         <v>2.58</v>
       </c>
       <c r="E47">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_45.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_45.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_45.mp3", "silence_11seconds/output_45.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>8.48</v>
       </c>
       <c r="E48">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_46.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_46.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_46.mp3", "silence_11seconds/output_46.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <v>8.5</v>
       </c>
       <c r="E49">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_47.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_47.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_47.mp3", "silence_11seconds/output_47.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>14.09</v>
       </c>
       <c r="E50">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_48.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_48.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_48.mp3", "silence_11seconds/output_48.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>2.25</v>
       </c>
       <c r="E51">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_49.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_49.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_49.mp3", "silence_11seconds/output_49.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>4.5</v>
       </c>
       <c r="E52">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_50.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_50.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_50.mp3", "silence_11seconds/output_50.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>0.51</v>
       </c>
       <c r="E53">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_51.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_51.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_51.mp3", "silence_11seconds/output_51.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="E54">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_52.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_52.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_52.mp3", "silence_11seconds/output_52.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
         <v>0.73</v>
       </c>
       <c r="E55">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_53.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_53.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_53.mp3", "silence_11seconds/output_53.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="E56">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_54.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_54.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_54.mp3", "silence_11seconds/output_54.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
         <v>7.78</v>
       </c>
       <c r="E57">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_55.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_55.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_55.mp3", "silence_11seconds/output_55.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
         <v>2.76</v>
       </c>
       <c r="E58">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_56.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_56.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_56.mp3", "silence_11seconds/output_56.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
         <v>3.87</v>
       </c>
       <c r="E59">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_57.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_57.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_57.mp3", "silence_11seconds/output_57.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>10.45</v>
       </c>
       <c r="E60">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_58.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_58.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_58.mp3", "silence_11seconds/output_58.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
         <v>6.38</v>
       </c>
       <c r="E61">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_59.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_59.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_59.mp3", "silence_11seconds/output_59.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
         <v>2.56</v>
       </c>
       <c r="E62">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_60.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_60.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_60.mp3", "silence_11seconds/output_60.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <v>1.08</v>
       </c>
       <c r="E63">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_61.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_61.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_61.mp3", "silence_11seconds/output_61.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
         <v>10.67</v>
       </c>
       <c r="E64">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_62.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_62.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_62.mp3", "silence_11seconds/output_62.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
         <v>0.7</v>
       </c>
       <c r="E65">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_63.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_63.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_63.mp3", "silence_11seconds/output_63.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
         <v>5.62</v>
       </c>
       <c r="E66">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_64.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_64.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_64.mp3", "silence_11seconds/output_64.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
         <v>5.07</v>
       </c>
       <c r="E67">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_65.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_65.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_65.mp3", "silence_11seconds/output_65.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
         <v>3.72</v>
       </c>
       <c r="E68">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_66.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_66.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_66.mp3", "silence_11seconds/output_66.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
         <v>7.28</v>
       </c>
       <c r="E69">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_67.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_67.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_67.mp3", "silence_11seconds/output_67.mp3")</f>
         <v/>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
         <v>2.27</v>
       </c>
       <c r="E70">
-        <f>HYPERLINK("https://github.com/Pier297/tamasheq/silence_11seconds/output_68.mp3", "https://github.com/Pier297/tamasheq/silence_11seconds/output_68.mp3")</f>
+        <f>HYPERLINK("https://github.com/Pier297/tamasheq/raw/main/silence_11seconds/output_68.mp3", "silence_11seconds/output_68.mp3")</f>
         <v/>
       </c>
     </row>
